--- a/data/case1/20/Q_device_3.xlsx
+++ b/data/case1/20/Q_device_3.xlsx
@@ -53,43 +53,51 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="true"/>
-    <col min="2" max="2" width="14.7109375" customWidth="true"/>
+    <col min="1" max="1" width="14.7109375" customWidth="true"/>
+    <col min="2" max="2" width="15.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.033443197113441153</v>
+        <v>0.024381441209963044</v>
       </c>
       <c r="B1" s="0">
-        <v>-0.033436367818669759</v>
+        <v>-0.024381441212844003</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.017223413041462118</v>
+        <v>-0.014453546071601079</v>
       </c>
       <c r="B2" s="0">
-        <v>-0.017220218699770726</v>
+        <v>0.014453546065520741</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.0050244466810807787</v>
+        <v>-0.014857821428728784</v>
       </c>
       <c r="B3" s="0">
-        <v>0.0050244466373689624</v>
+        <v>0.014857821421021473</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.047637176138043094</v>
+        <v>0.0035965660576935698</v>
       </c>
       <c r="B4" s="0">
-        <v>-0.047637176169400046</v>
+        <v>-0.0035965660608587788</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>0.064024928246492807</v>
+      </c>
+      <c r="B5" s="0">
+        <v>-0.064024928251123908</v>
       </c>
     </row>
   </sheetData>
